--- a/reports/report-1/sulaiman/New Microsoft Excel Worksheet.xlsx
+++ b/reports/report-1/sulaiman/New Microsoft Excel Worksheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CurSold-PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CurSold-PC\Desktop\Github project\on-campus-delivery-robot\reports\report-1\sulaiman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8970DF2B-C8A1-49CB-A502-6F93B5C29B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1144A381-DF88-49DC-80D7-0B581B968DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="85" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17610" yWindow="1695" windowWidth="21600" windowHeight="15435" tabRatio="85" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Listing</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Able to move around the campus autonomously</t>
   </si>
   <si>
-    <t>Able to carry objects inside itself.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avoid obstacles </t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>Operate at road speed</t>
   </si>
   <si>
-    <t>re-fueling once a week.</t>
-  </si>
-  <si>
     <t>There is no network interference</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>Automate deliveries in KAU</t>
   </si>
   <si>
-    <t>Reduce time wasted by delivering manually</t>
-  </si>
-  <si>
     <t>Make use of the available space</t>
   </si>
   <si>
@@ -135,18 +126,12 @@
     <t>To reduce the need for manual transport of food, equipment and documents . A  robotic autonomous device should be developed This way, workers/students can stay at their respective stations/classes rather than having to walk back and forth across the campus.</t>
   </si>
   <si>
-    <t>University declines the use of its wifi</t>
-  </si>
-  <si>
     <t>use 4g</t>
   </si>
   <si>
     <t>A part breaks down</t>
   </si>
   <si>
-    <t>order/buy a new part which has better quality</t>
-  </si>
-  <si>
     <t>lockdown again</t>
   </si>
   <si>
@@ -166,6 +151,48 @@
   </si>
   <si>
     <t>a lockbox to store the food,documents….</t>
+  </si>
+  <si>
+    <t>deliver the packages safely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eco-friendly with no gas emission </t>
+  </si>
+  <si>
+    <t>• The packages are safely secured such that they cannot be stolen</t>
+  </si>
+  <si>
+    <t>·         No components are DOA (dead on arrival)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the university network covers the whole campus or at least a 4G connection is available </t>
+  </si>
+  <si>
+    <t>·         Must be done before the end of the spring semester</t>
+  </si>
+  <si>
+    <t>·         Environmentally friendly material</t>
+  </si>
+  <si>
+    <t>• Size of package at least x m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All electronics are insulated from users</t>
+  </si>
+  <si>
+    <t>includes a storage unit for the shipments.</t>
+  </si>
+  <si>
+    <t>battery life lasts atleast one complete trip.</t>
+  </si>
+  <si>
+    <t>Reduce the time wasted by delivering manually</t>
+  </si>
+  <si>
+    <t>weak wide fidelity signal</t>
+  </si>
+  <si>
+    <t>Replace with higher quality part.</t>
   </si>
 </sst>
 </file>
@@ -617,16 +644,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="M14:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" topLeftCell="V10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15:V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="80.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="51.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="58" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -687,35 +714,35 @@
         <v>13</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="R15" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="V15" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="X15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y15" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="13:25" x14ac:dyDescent="0.25">
@@ -723,36 +750,36 @@
         <v>2</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="O16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P16" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="V16" s="6"/>
       <c r="W16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y16" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="13:25" x14ac:dyDescent="0.25">
@@ -760,36 +787,36 @@
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="V17" s="6"/>
       <c r="W17" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="13:25" x14ac:dyDescent="0.25">
@@ -818,10 +845,12 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
+      <c r="T19" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="U19" s="3"/>
       <c r="V19" s="6"/>
       <c r="W19" s="3"/>
@@ -837,7 +866,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -856,7 +885,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -870,10 +899,18 @@
       <c r="M22" s="2">
         <v>8</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="N22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -887,10 +924,18 @@
       <c r="M23" s="2">
         <v>9</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="N23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -990,5 +1035,6 @@
     <mergeCell ref="V15:V28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>